--- a/UserService.xlsx
+++ b/UserService.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">wwwsaish@gamil.com</t>
+    <t xml:space="preserve">saish@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Saish@123</t>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Saish</t>
   </si>
   <si>
-    <t xml:space="preserve">eeerrahul@gmail.com</t>
+    <t xml:space="preserve">rahul@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Rahul@123</t>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Rahul</t>
   </si>
   <si>
-    <t xml:space="preserve">wwwPrajwal@gmail.com</t>
+    <t xml:space="preserve">prajwal@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">RPrajwal@123</t>
@@ -322,7 +322,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -383,12 +383,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -500,7 +494,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -600,11 +594,11 @@
   </sheetPr>
   <dimension ref="A1:AK1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="19.12"/>
@@ -1800,11 +1794,11 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="saish@gamil.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="saish@gmail.com"/>
     <hyperlink ref="B2" r:id="rId2" display="Saish@123"/>
     <hyperlink ref="A3" r:id="rId3" display="rahul@gmail.com"/>
     <hyperlink ref="B3" r:id="rId4" display="Rahul@123"/>
-    <hyperlink ref="A4" r:id="rId5" display="Prajwal@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId5" display="prajwal@gmail.com"/>
     <hyperlink ref="B4" r:id="rId6" display="RPrajwal@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1830,9 +1824,9 @@
       <selection pane="bottomLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
@@ -1883,13 +1877,15 @@
       <c r="B2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="17" t="b">
+      <c r="C2" s="17" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="17" t="b">
+      <c r="E2" s="17" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F2" s="0" t="s">
@@ -1903,13 +1899,15 @@
       <c r="B3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="17" t="b">
+      <c r="C3" s="17" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="17" t="b">
+      <c r="E3" s="17" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F3" s="0" t="s">
@@ -1923,13 +1921,15 @@
       <c r="B4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="17" t="b">
+      <c r="C4" s="17" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="17" t="b">
+      <c r="E4" s="17" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F4" s="0" t="s">
@@ -1943,13 +1943,15 @@
       <c r="B5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="17" t="b">
+      <c r="C5" s="17" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="17" t="b">
+      <c r="E5" s="17" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="F5" s="0" t="s">
@@ -2012,7 +2014,7 @@
       <selection pane="bottomLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
@@ -2598,13 +2600,13 @@
   </sheetPr>
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.31"/>
   </cols>
   <sheetData>

--- a/UserService.xlsx
+++ b/UserService.xlsx
@@ -595,10 +595,10 @@
   <dimension ref="A1:AK1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="19.12"/>
@@ -1824,7 +1824,7 @@
       <selection pane="bottomLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
@@ -2014,7 +2014,7 @@
       <selection pane="bottomLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
@@ -2604,7 +2604,7 @@
       <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.31"/>

--- a/UserService.xlsx
+++ b/UserService.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
   <si>
     <t xml:space="preserve">email</t>
   </si>
@@ -36,33 +36,6 @@
   </si>
   <si>
     <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saish@gamil.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saish@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rahul@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rahul@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rahul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prajwal@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPrajwal@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prajwal</t>
   </si>
   <si>
     <t xml:space="preserve">Staff_id</t>
@@ -463,10 +436,10 @@
   <dimension ref="A1:AK1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="19.12"/>
@@ -529,15 +502,7 @@
       <c r="AK1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -573,15 +538,7 @@
       <c r="AK2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="F3" s="9"/>
       <c r="G3" s="3"/>
@@ -615,15 +572,7 @@
       <c r="AI3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1661,14 +1610,6 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="saish@gamil.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="Saish@123"/>
-    <hyperlink ref="A3" r:id="rId3" display="rahul@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId4" display="Rahul@123"/>
-    <hyperlink ref="A4" r:id="rId5" display="Prajwal@gmail.com"/>
-    <hyperlink ref="B4" r:id="rId6" display="RPrajwal@123"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1692,29 +1633,29 @@
       <selection pane="bottomLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -1738,19 +1679,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1821,29 +1762,29 @@
       <selection pane="bottomLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -1867,19 +1808,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1951,32 +1892,32 @@
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -2000,19 +1941,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2081,29 +2022,29 @@
       <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -2127,19 +2068,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2208,29 +2149,29 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -2254,19 +2195,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,7 +2276,7 @@
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.14"/>
@@ -2346,36 +2287,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2400,23 +2341,23 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2424,13 +2365,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2438,13 +2379,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2452,13 +2393,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,13 +2407,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2480,13 +2421,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2494,13 +2435,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
